--- a/upload_files/nihad-azimli-resume__text.xlsx
+++ b/upload_files/nihad-azimli-resume__text.xlsx
@@ -70,7 +70,7 @@
     <t>celery : 1</t>
   </si>
   <si>
-    <t>python : 10</t>
+    <t>python : 8</t>
   </si>
   <si>
     <t>aws : 16</t>
@@ -112,42 +112,42 @@
     <t>dynamodb : 4</t>
   </si>
   <si>
+    <t>reports : 1</t>
+  </si>
+  <si>
+    <t>qlik : 4</t>
+  </si>
+  <si>
+    <t>conversion : 1</t>
+  </si>
+  <si>
+    <t>sql : 1</t>
+  </si>
+  <si>
+    <t>ssis : 1</t>
+  </si>
+  <si>
+    <t>etl : 1</t>
+  </si>
+  <si>
+    <t>selenium : 2</t>
+  </si>
+  <si>
+    <t>sql queries : 1</t>
+  </si>
+  <si>
+    <t>queries : 1</t>
+  </si>
+  <si>
+    <t>stored procedures : 1</t>
+  </si>
+  <si>
     <t>bi : 1</t>
   </si>
   <si>
     <t>developer : 3</t>
   </si>
   <si>
-    <t>reports : 1</t>
-  </si>
-  <si>
-    <t>qlik : 4</t>
-  </si>
-  <si>
-    <t>conversion : 1</t>
-  </si>
-  <si>
-    <t>sql : 1</t>
-  </si>
-  <si>
-    <t>ssis : 1</t>
-  </si>
-  <si>
-    <t>etl : 1</t>
-  </si>
-  <si>
-    <t>selenium : 2</t>
-  </si>
-  <si>
-    <t>sql queries : 2</t>
-  </si>
-  <si>
-    <t>queries : 1</t>
-  </si>
-  <si>
-    <t>stored procedures : 1</t>
-  </si>
-  <si>
     <t>bamboo : 1</t>
   </si>
   <si>
@@ -166,13 +166,13 @@
     <t>project : 3</t>
   </si>
   <si>
-    <t>data mining : 4</t>
+    <t>data mining : 3</t>
   </si>
   <si>
     <t>mining : 2</t>
   </si>
   <si>
-    <t>tensorflow : 4</t>
+    <t>tensorflow : 3</t>
   </si>
   <si>
     <t>intern : 1</t>
@@ -193,15 +193,30 @@
     <t>ieee : 1</t>
   </si>
   <si>
+    <t>hybrid : 1</t>
+  </si>
+  <si>
     <t>design : 1</t>
   </si>
   <si>
-    <t>hybrid : 1</t>
-  </si>
-  <si>
     <t>github : 2</t>
   </si>
   <si>
+    <t>tools : 2</t>
+  </si>
+  <si>
+    <t>docker : 2</t>
+  </si>
+  <si>
+    <t>ansible : 2</t>
+  </si>
+  <si>
+    <t>cloudformation : 1</t>
+  </si>
+  <si>
+    <t>azure : 2</t>
+  </si>
+  <si>
     <t>amazon : 1</t>
   </si>
   <si>
@@ -211,16 +226,13 @@
     <t>microsoft azure : 1</t>
   </si>
   <si>
-    <t>azure : 2</t>
-  </si>
-  <si>
     <t>databases : 1</t>
   </si>
   <si>
     <t>redshift : 2</t>
   </si>
   <si>
-    <t>mysql : 1</t>
+    <t>mysql : 2</t>
   </si>
   <si>
     <t>unix shell : 2</t>
@@ -230,18 +242,6 @@
   </si>
   <si>
     <t>java : 1</t>
-  </si>
-  <si>
-    <t>tools : 2</t>
-  </si>
-  <si>
-    <t>docker : 2</t>
-  </si>
-  <si>
-    <t>ansible : 2</t>
-  </si>
-  <si>
-    <t>cloudformation : 1</t>
   </si>
   <si>
     <t>bi tools : 1</t>
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11">

--- a/upload_files/nihad-azimli-resume__text.xlsx
+++ b/upload_files/nihad-azimli-resume__text.xlsx
@@ -259,13 +259,13 @@
     <t>project : 1</t>
   </si>
   <si>
+    <t>python : 1</t>
+  </si>
+  <si>
     <t>analysis : 1</t>
   </si>
   <si>
     <t>databases : 2</t>
-  </si>
-  <si>
-    <t>python : 1</t>
   </si>
   <si>
     <t>27.77</t>
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -713,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11">

--- a/upload_files/nihad-azimli-resume__text.xlsx
+++ b/upload_files/nihad-azimli-resume__text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>CV ID</t>
   </si>
@@ -55,7 +55,7 @@
     <t>text.txt</t>
   </si>
   <si>
-    <t>25.77</t>
+    <t>26.49</t>
   </si>
   <si>
     <t>data engineer : 1</t>
@@ -103,9 +103,6 @@
     <t>kubernetes : 4</t>
   </si>
   <si>
-    <t>development : 1</t>
-  </si>
-  <si>
     <t>kinesis : 2</t>
   </si>
   <si>
@@ -157,15 +154,9 @@
     <t>software developer : 3</t>
   </si>
   <si>
-    <t>software : 2</t>
-  </si>
-  <si>
     <t>analysis : 3</t>
   </si>
   <si>
-    <t>project : 3</t>
-  </si>
-  <si>
     <t>data mining : 3</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>computer engineering : 1</t>
   </si>
   <si>
-    <t>engineering : 1</t>
-  </si>
-  <si>
     <t>electrical : 1</t>
   </si>
   <si>
@@ -256,19 +244,16 @@
     <t>amazon web services : 1</t>
   </si>
   <si>
-    <t>project : 1</t>
+    <t>analysis : 1</t>
+  </si>
+  <si>
+    <t>databases : 2</t>
   </si>
   <si>
     <t>python : 1</t>
   </si>
   <si>
-    <t>analysis : 1</t>
-  </si>
-  <si>
-    <t>databases : 2</t>
-  </si>
-  <si>
-    <t>27.77</t>
+    <t>28.57</t>
   </si>
   <si>
     <t>0.0</t>
@@ -612,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,16 +665,16 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -697,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -705,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -713,16 +698,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="E7" t="s">
@@ -1007,26 +989,6 @@
     <row r="63" spans="5:5">
       <c r="E63" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/upload_files/nihad-azimli-resume__text.xlsx
+++ b/upload_files/nihad-azimli-resume__text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>CV ID</t>
   </si>
@@ -55,7 +55,7 @@
     <t>text.txt</t>
   </si>
   <si>
-    <t>26.49</t>
+    <t>8.333</t>
   </si>
   <si>
     <t>data engineer : 1</t>
@@ -64,22 +64,16 @@
     <t>engineer : 1</t>
   </si>
   <si>
-    <t>apache : 4</t>
+    <t>apache : 6</t>
   </si>
   <si>
     <t>celery : 1</t>
   </si>
   <si>
-    <t>python : 8</t>
-  </si>
-  <si>
     <t>aws : 16</t>
   </si>
   <si>
-    <t>s3 : 2</t>
-  </si>
-  <si>
-    <t>lambda : 3</t>
+    <t>lambda : 1</t>
   </si>
   <si>
     <t>research : 1</t>
@@ -91,22 +85,19 @@
     <t>migration : 1</t>
   </si>
   <si>
-    <t>mongodb : 5</t>
-  </si>
-  <si>
-    <t>apache spark : 4</t>
-  </si>
-  <si>
-    <t>spark : 2</t>
-  </si>
-  <si>
-    <t>kubernetes : 4</t>
-  </si>
-  <si>
-    <t>kinesis : 2</t>
-  </si>
-  <si>
-    <t>dynamodb : 4</t>
+    <t>mongodb : 3</t>
+  </si>
+  <si>
+    <t>s3 : 1</t>
+  </si>
+  <si>
+    <t>kubernetes : 3</t>
+  </si>
+  <si>
+    <t>kinesis : 1</t>
+  </si>
+  <si>
+    <t>dynamodb : 3</t>
   </si>
   <si>
     <t>reports : 1</t>
@@ -130,6 +121,9 @@
     <t>selenium : 2</t>
   </si>
   <si>
+    <t>python : 5</t>
+  </si>
+  <si>
     <t>sql queries : 1</t>
   </si>
   <si>
@@ -139,7 +133,7 @@
     <t>stored procedures : 1</t>
   </si>
   <si>
-    <t>bi : 1</t>
+    <t>bi : 2</t>
   </si>
   <si>
     <t>developer : 3</t>
@@ -178,28 +172,13 @@
     <t>electronics : 1</t>
   </si>
   <si>
-    <t>ieee : 1</t>
-  </si>
-  <si>
     <t>hybrid : 1</t>
   </si>
   <si>
     <t>design : 1</t>
   </si>
   <si>
-    <t>github : 2</t>
-  </si>
-  <si>
-    <t>tools : 2</t>
-  </si>
-  <si>
-    <t>docker : 2</t>
-  </si>
-  <si>
-    <t>ansible : 2</t>
-  </si>
-  <si>
-    <t>cloudformation : 1</t>
+    <t>tools : 1</t>
   </si>
   <si>
     <t>azure : 2</t>
@@ -208,52 +187,49 @@
     <t>amazon : 1</t>
   </si>
   <si>
-    <t>web services : 1</t>
-  </si>
-  <si>
     <t>microsoft azure : 1</t>
   </si>
   <si>
-    <t>databases : 1</t>
-  </si>
-  <si>
-    <t>redshift : 2</t>
-  </si>
-  <si>
-    <t>mysql : 2</t>
-  </si>
-  <si>
-    <t>unix shell : 2</t>
-  </si>
-  <si>
-    <t>shell : 1</t>
+    <t>unix : 1</t>
   </si>
   <si>
     <t>java : 1</t>
   </si>
   <si>
-    <t>bi tools : 1</t>
-  </si>
-  <si>
     <t>tableau : 1</t>
   </si>
   <si>
     <t>english : 1</t>
   </si>
   <si>
+    <t>apache spark : 2</t>
+  </si>
+  <si>
+    <t>github : 1</t>
+  </si>
+  <si>
+    <t>docker : 1</t>
+  </si>
+  <si>
+    <t>ansible : 1</t>
+  </si>
+  <si>
     <t>amazon web services : 1</t>
   </si>
   <si>
+    <t>redshift : 1</t>
+  </si>
+  <si>
+    <t>mysql : 1</t>
+  </si>
+  <si>
+    <t>unix shell : 1</t>
+  </si>
+  <si>
     <t>analysis : 1</t>
   </si>
   <si>
-    <t>databases : 2</t>
-  </si>
-  <si>
-    <t>python : 1</t>
-  </si>
-  <si>
-    <t>28.57</t>
+    <t>9.090</t>
   </si>
   <si>
     <t>0.0</t>
@@ -597,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +641,32 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="E6" t="s">
@@ -959,36 +926,6 @@
     <row r="57" spans="5:5">
       <c r="E57" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
